--- a/2023_STB_survey.xlsx
+++ b/2023_STB_survey.xlsx
@@ -1,375 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yunji\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuxin\Documents\2003STB_sonuheun\2003STB_sonuheun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC5F240-2A09-4FFE-8682-403D395E6852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9504EC5C-BA92-42EC-B848-AD3A26E3D86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="answer" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">answer!$A$1:$AL$49</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="119">
-  <si>
-    <t>6. 귀하는 인터넷을 사용하셨습니까?</t>
-  </si>
-  <si>
-    <t>7. '건강' 항목에 대하여 귀하의 만족도는 어느 정도입니까?</t>
-  </si>
-  <si>
-    <t>8. '가족의 수입' 항목에 대하여 귀하의 만족도는 어느 정도입니까?</t>
-  </si>
-  <si>
-    <t>9. '주거 환경' 항목에 대하여 귀하의 만족도는 어느 정도입니까?</t>
-  </si>
-  <si>
-    <t>10. '가족 관계' 항목에 대하여 귀하의 만족도는 어느 정도입니까?</t>
-  </si>
-  <si>
-    <t>11.'사회적 친분관계' 항목에 대하여 귀하의 만족도는 어느 정도입니까?</t>
-  </si>
-  <si>
-    <t>12. '여가생활' 항목에 대하여 귀하의 만족도는 어느 정도입니까?</t>
-  </si>
-  <si>
-    <t>13. 그럼, 위의 사항을 모두 고려할 때, 귀하는 전반적으로 생활에 얼마나 만족하고 계십니까?</t>
-  </si>
-  <si>
-    <t>14. 귀하는 정기적으로 기부를 하거나, 자원봉사활동을 하고 있습니까?</t>
-  </si>
-  <si>
-    <t>14-1. (문14)의 '그렇다' 응답자만) 귀하는 2022년 1년간 얼마 정도(연간 총액, 단위: 만원) 기부하셨습니까?</t>
-  </si>
-  <si>
-    <t>(문14)의 '그렇다' 응답자만) 귀하는 자원봉사활동을 2022년 1년간 몇 회 정도 하셨습니까?</t>
-  </si>
-  <si>
-    <t>15. 귀하는 따로 살고 있는 부모님이 계십니까?</t>
-  </si>
-  <si>
-    <t>(문15)의 '있다' 응답자만) 2022년 1년간 귀하는 따로 살고 있는 부모님과 얼마나 자주 왕래를 하셨습니까?</t>
-  </si>
-  <si>
-    <t>(문15)의 '있다' 응답자만)  2022년 1년간 귀하는 따로 살고 있는 부모님과 얼마나 자주 전화통화를 하셨습니까?</t>
-  </si>
-  <si>
-    <t>16. (모든 응답자) 귀하가 지금까지 살아오시는 동안 피운 담배의 양은 총 얼마입니까?</t>
-  </si>
-  <si>
-    <t>(문 16)의 ①~②번 응답자만) 귀하께서 처음으로 담배 한 대를 다 피운 시기(만 00세)는 언제입니까?</t>
-  </si>
-  <si>
-    <t>16-1. (문 16)의 ①~②번 응답자만) 귀하의 총 흡연기간(00 년)은 얼마나 됩니까?</t>
-  </si>
-  <si>
-    <t>17. (모든 응답자) 귀하께서는 현재 담배를 피우십니까?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(문 17)의 ①번 응답자만) 귀하의 하루 평균 흡연량은 몇 개비입니까? </t>
-  </si>
-  <si>
-    <t>(문 17)의 ①번 응답자만) 최근 1년 동안 담배를 끊고자 하루(24시간) 이상 금연한 적이 있습니까?</t>
-  </si>
-  <si>
-    <t>(문 17)의 ①번 응답자만) 앞으로 담배를 끊을 계획이 있습니까?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18. (모든 응답자) 귀하께서 밀폐된 공간에서 다른 사람이 피우는 담배 연기를 맡는 시간은 하루 몇 시간 정도입니까? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(문 18)의 ③번 응답자만) 귀하는 하루 평균 몇 시간 정도 밀폐된 공간에서 다른 사람이 피우는 담배 연기를 맡으셨습니까? </t>
-  </si>
-  <si>
-    <t>19. (모든 응답자) 귀하는 술을 얼마나 자주 마십니까?</t>
-  </si>
-  <si>
-    <t>(문 19)의 ①~④번 응답자만) 보통 술을 마실 때 몇 잔 정도 마십니까?</t>
-  </si>
-  <si>
-    <t>19-1. (문 19)의 ①~④번 응답자만)  한 번에 술좌석에서 6잔 이상 마시는 경우가 얼마나 자주 됩니까?</t>
-  </si>
-  <si>
-    <t>(문 19)의 ①~④번 응답자만)  2023년 조사일 현재를 기준으로 지난 한 해 동안 귀하는 다음과 같은 경험을 한 적은 몇 번입니까? 
-"술을 마시기 시작하면 중간에 그만둘 수 없었던 적이 얼마나 자주입니까?"</t>
-  </si>
-  <si>
-    <t>(문 19)의 ①~④번 응답자만)  2023년 조사일 현재를 기준으로 지난 한 해 동안 귀하는 다음과 같은 경험을 한 적은 몇 번입니까? 
-"해야 할 일을 술 때문에 하지 못한 적이 얼마나 됩니까?"</t>
-  </si>
-  <si>
-    <t>(문 19)의 ①~④번 응답자만)  2023년 조사일 현재를 기준으로 지난 한 해 동안 귀하는 다음과 같은 경험을 한 적은 몇 번입니까? 
-"과음을 한 다음날 해장술을 마셔야 했던 적이 얼마나 됩니까?"</t>
-  </si>
-  <si>
-    <t>(문 19)의 ①~④번 응답자만)  2023년 조사일 현재를 기준으로 지난 한 해 동안 귀하는 다음과 같은 경험을 한 적은 몇 번입니까? 
-"술을 마신 후에 좌절감을 느끼거나 후회한 적이 얼마나 됩니까?"</t>
-  </si>
-  <si>
-    <t>(문 19)의 ①~④번 응답자만)  2023년 조사일 현재를 기준으로 지난 한 해 동안 귀하는 다음과 같은 경험을 한 적은 몇 번입니까? 
-"술 마시고 필름이 끊긴 적이 얼마나 됩니까?"</t>
-  </si>
-  <si>
-    <t>(문 19)의 ①~④번 응답자만)  2023년 조사일 현재를 기준으로 지난 한 해 동안 귀하는 다음과 같은 경험을 한 적은 몇 번입니까? 
-"술로 인해 자신이 다치거나 다른 사람을 다치게 한 적이 얼마나 됩니까?"</t>
-  </si>
-  <si>
-    <t>(문 19)의 ①~④번 응답자만)  2023년 조사일 현재를 기준으로 지난 한 해 동안 귀하는 다음과 같은 경험을 한 적은 몇 번입니까? 
-"친척, 친구나 의사와 같은 주변사람들이 귀하의 음주를 걱정하거나 술을 줄이도록 권한 적이 얼마나 됩니까?"</t>
-  </si>
-  <si>
-    <t>남자</t>
-  </si>
-  <si>
-    <t>한국</t>
-  </si>
-  <si>
-    <t>경기</t>
-  </si>
-  <si>
-    <t>그렇다</t>
-  </si>
-  <si>
-    <t>아니다</t>
-  </si>
-  <si>
-    <t>없다.</t>
-  </si>
-  <si>
-    <t>피운 적 없음</t>
-  </si>
-  <si>
-    <t>피우지 않음</t>
-  </si>
-  <si>
-    <t>0시간(없음)</t>
-  </si>
-  <si>
-    <t>주 4회 이상</t>
-  </si>
-  <si>
-    <t>10잔 이상</t>
-  </si>
-  <si>
-    <t>일주일에 한두 번 정도</t>
-  </si>
-  <si>
-    <t>전혀 없음</t>
-  </si>
-  <si>
-    <t>중국</t>
-  </si>
-  <si>
-    <t>있다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">주 07회 </t>
-  </si>
-  <si>
-    <t>주 07회</t>
-  </si>
-  <si>
-    <t>월 1회 이하</t>
-  </si>
-  <si>
-    <t>1~2잔 정도</t>
-  </si>
-  <si>
-    <t>몇 달에 한번정도</t>
-  </si>
-  <si>
-    <t>여자</t>
-  </si>
-  <si>
-    <t>5갑(100개비) 미만</t>
-  </si>
-  <si>
-    <t>만 18세 , 대학 입학 후</t>
-  </si>
-  <si>
-    <t>1달</t>
-  </si>
-  <si>
-    <t>주 2~3회</t>
-  </si>
-  <si>
-    <t>5~6잔 정도</t>
-  </si>
-  <si>
-    <t>한 달에 한두 번 정도</t>
-  </si>
-  <si>
-    <t>몽골</t>
-  </si>
-  <si>
-    <t>월 2~4회</t>
-  </si>
-  <si>
-    <t>3~4잔 정도</t>
-  </si>
-  <si>
-    <t>서울</t>
-  </si>
-  <si>
-    <t>연 2회</t>
-  </si>
-  <si>
-    <t>월 2회</t>
-  </si>
-  <si>
-    <t>전혀 없다</t>
-  </si>
-  <si>
-    <t>전혀 마시지 않는다</t>
-  </si>
-  <si>
-    <t>1시간 미만</t>
-  </si>
-  <si>
-    <t>월 1회</t>
-  </si>
-  <si>
-    <t>일 1-2회</t>
-  </si>
-  <si>
-    <t>지난 1년 동안 있었음</t>
-  </si>
-  <si>
-    <t>5갑(100개비) 이상</t>
-  </si>
-  <si>
-    <t>피움</t>
-  </si>
-  <si>
-    <t>10만원</t>
-  </si>
-  <si>
-    <t>년 240회</t>
-  </si>
-  <si>
-    <t>주 02회</t>
-  </si>
-  <si>
-    <t>인천</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
   <si>
     <t>10w</t>
   </si>
   <si>
-    <t>1시간 이상</t>
-  </si>
-  <si>
-    <t>충북</t>
-  </si>
-  <si>
-    <t>1년에 한 번</t>
-  </si>
-  <si>
-    <t>이주에 한 번</t>
-  </si>
-  <si>
-    <t>거의 매일</t>
-  </si>
-  <si>
-    <t>월1회</t>
-  </si>
-  <si>
-    <t>주1회</t>
-  </si>
-  <si>
-    <t>7~9잔 정도</t>
-  </si>
-  <si>
-    <t>6회</t>
-  </si>
-  <si>
-    <t>20세</t>
-  </si>
-  <si>
-    <t>년4회</t>
-  </si>
-  <si>
-    <t>주 4회</t>
-  </si>
-  <si>
-    <t>3년</t>
-  </si>
-  <si>
-    <t>반갑</t>
-  </si>
-  <si>
-    <t>예</t>
-  </si>
-  <si>
-    <t>현재로서는 전혀 금연할 계획이 없다.</t>
-  </si>
-  <si>
-    <t>6개월 안에 금연할 계획이 있다.</t>
-  </si>
-  <si>
-    <t>아니오</t>
-  </si>
-  <si>
-    <t>50분</t>
-  </si>
-  <si>
-    <t>만 19세</t>
-  </si>
-  <si>
-    <t>5년</t>
-  </si>
-  <si>
-    <t>일주일에 두세 번</t>
-  </si>
-  <si>
-    <t>일주일에 3번에서 5번</t>
-  </si>
-  <si>
-    <t>4년</t>
-  </si>
-  <si>
     <t>5~10</t>
-  </si>
-  <si>
-    <t>6개월 이내는 아니지만 언젠가는 금연할 계획이 있다.</t>
-  </si>
-  <si>
-    <t>매일</t>
-  </si>
-  <si>
-    <t>과거에는 있었지만 지난 한 해 동안 없음</t>
-  </si>
-  <si>
-    <t>울산</t>
-  </si>
-  <si>
-    <t>240,000원</t>
-  </si>
-  <si>
-    <t>12회</t>
-  </si>
-  <si>
-    <t>대구</t>
-  </si>
-  <si>
-    <t>월 2 회</t>
-  </si>
-  <si>
-    <t>년 2회</t>
-  </si>
-  <si>
-    <t>주 2회</t>
   </si>
   <si>
     <t>Gender</t>
@@ -390,13 +50,301 @@
   <si>
     <t>residential area</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>family income</t>
+  </si>
+  <si>
+    <t>Residential Environment</t>
+  </si>
+  <si>
+    <t>family relationship</t>
+  </si>
+  <si>
+    <t>social relationships</t>
+  </si>
+  <si>
+    <t>leisure life</t>
+  </si>
+  <si>
+    <t>life satisfaction</t>
+  </si>
+  <si>
+    <t>volunteer work</t>
+  </si>
+  <si>
+    <t>Donation amount</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4w</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0w</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of volunteer work</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parents</t>
+  </si>
+  <si>
+    <t>Frequency of visiting parents</t>
+  </si>
+  <si>
+    <t>7 times a week</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>240 times a year</t>
+  </si>
+  <si>
+    <t>two or three times a week</t>
+  </si>
+  <si>
+    <t>2 times a month</t>
+  </si>
+  <si>
+    <t>4 times a year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 times</t>
+  </si>
+  <si>
+    <t>twice a year</t>
+  </si>
+  <si>
+    <t>frequency of phone calls</t>
+  </si>
+  <si>
+    <t>twice a month</t>
+  </si>
+  <si>
+    <t>1-2 times a day</t>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">wice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a week</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>twice a year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>once a month</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>once a year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>once a week</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>once every two weeks</t>
+  </si>
+  <si>
+    <t>4 times a week</t>
+  </si>
+  <si>
+    <t>3 to 5 times a week</t>
+  </si>
+  <si>
+    <t>number of cigarettes</t>
+  </si>
+  <si>
+    <t>Less than 5 packs (100 cigarettes)</t>
+  </si>
+  <si>
+    <t>5 packs (100 cigarettes) or more</t>
+  </si>
+  <si>
+    <t>Never smoked</t>
+  </si>
+  <si>
+    <t>Time to smoke the first cigarette</t>
+  </si>
+  <si>
+    <t>18 years old, after entering college</t>
+  </si>
+  <si>
+    <t>Total years of smoking</t>
+  </si>
+  <si>
+    <t>1 month</t>
+  </si>
+  <si>
+    <t>3 years</t>
+  </si>
+  <si>
+    <t>5 years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> years</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smoking or not</t>
+  </si>
+  <si>
+    <t>average number of cigarettes smoked per day</t>
+  </si>
+  <si>
+    <t>half pack</t>
+  </si>
+  <si>
+    <t>quit smoking</t>
+  </si>
+  <si>
+    <t>plan to quit smoking</t>
+  </si>
+  <si>
+    <t>How many hours a day do you spend smelling other people’s cigarette smoke in an enclosed space?</t>
+  </si>
+  <si>
+    <t>On average, how many hours a day did you smell someone else's cigarette smoke in a closed space?</t>
+  </si>
+  <si>
+    <r>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>everyday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drink alcohol</t>
+  </si>
+  <si>
+    <t>How many drinks do you usually drink?</t>
+  </si>
+  <si>
+    <t>How often do you drink more than 6 drinks at a time?</t>
+  </si>
+  <si>
+    <t>How often have you started drinking and been unable to stop?</t>
+  </si>
+  <si>
+    <t>How many times have you been unable to do something you should have done because of alcohol?</t>
+  </si>
+  <si>
+    <t>How many times have you had to drink alcohol to relieve yourself the day after drinking too much</t>
+  </si>
+  <si>
+    <t>How often have you felt frustrated or regretful after drinking alcohol?</t>
+  </si>
+  <si>
+    <t>How many times have you stopped watching a movie after drinking?</t>
+  </si>
+  <si>
+    <t>How often have you hurt yourself or hurt someone else because of your drinking?</t>
+  </si>
+  <si>
+    <t>How often have people around you, such as relatives, friends, or doctors, worried about your drinking or encouraged you to drink less?”</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -423,6 +371,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -444,13 +400,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1287,140 +1244,151 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL49"/>
+  <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM13" sqref="AM13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="44" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="19" width="18.81640625" customWidth="1"/>
+    <col min="20" max="20" width="30.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="37" width="18.81640625" customWidth="1"/>
+    <col min="38" max="38" width="21.36328125" customWidth="1"/>
+    <col min="39" max="44" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
+    <row r="2" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>22</v>
@@ -1428,14 +1396,14 @@
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
       </c>
       <c r="G2" s="1">
         <v>5</v>
@@ -1458,30 +1426,30 @@
       <c r="M2" s="1">
         <v>4</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>38</v>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE2" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="W2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>3</v>
+      </c>
       <c r="AF2" s="1">
         <v>3</v>
       </c>
@@ -1497,16 +1465,16 @@
       <c r="AJ2" s="1">
         <v>1</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>45</v>
+      <c r="AK2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
+    <row r="3" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>25</v>
@@ -1514,14 +1482,14 @@
       <c r="C3" s="1">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>36</v>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>5</v>
@@ -1544,41 +1512,41 @@
       <c r="M3" s="1">
         <v>5</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="1">
-        <v>10000</v>
+      <c r="N3" s="1">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>49</v>
+      <c r="Q3" s="1">
+        <v>2</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="W3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>2</v>
       </c>
       <c r="AF3" s="1">
         <v>1</v>
@@ -1595,16 +1563,16 @@
       <c r="AJ3" s="1">
         <v>1</v>
       </c>
-      <c r="AK3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>45</v>
+      <c r="AK3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>53</v>
+    <row r="4" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>19</v>
@@ -1612,14 +1580,14 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>36</v>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>4</v>
@@ -1642,35 +1610,35 @@
       <c r="M4" s="1">
         <v>4</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>38</v>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="W4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>4</v>
       </c>
       <c r="AF4" s="1">
         <v>2</v>
@@ -1687,16 +1655,16 @@
       <c r="AJ4" s="1">
         <v>3</v>
       </c>
-      <c r="AK4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>45</v>
+      <c r="AK4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>53</v>
+    <row r="5" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>21</v>
@@ -1704,14 +1672,14 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>5</v>
@@ -1734,25 +1702,25 @@
       <c r="M5" s="1">
         <v>5</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>38</v>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="W5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
+    <row r="6" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>23</v>
@@ -1760,14 +1728,14 @@
       <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>36</v>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -1790,29 +1758,29 @@
       <c r="M6" s="1">
         <v>4</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>38</v>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="W6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>2</v>
       </c>
       <c r="AF6" s="1">
         <v>2</v>
@@ -1829,16 +1797,16 @@
       <c r="AJ6" s="1">
         <v>1</v>
       </c>
-      <c r="AK6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>45</v>
+      <c r="AK6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
+    <row r="7" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>22</v>
@@ -1846,14 +1814,14 @@
       <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <v>4</v>
@@ -1876,34 +1844,34 @@
       <c r="M7" s="1">
         <v>4</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>38</v>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="W7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
+    <row r="8" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>27</v>
@@ -1911,65 +1879,65 @@
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1">
-        <v>4</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2</v>
-      </c>
-      <c r="K8" s="1">
-        <v>4</v>
-      </c>
-      <c r="L8" s="1">
-        <v>3</v>
-      </c>
-      <c r="M8" s="1">
-        <v>4</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="S8" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="W8" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>4</v>
       </c>
       <c r="AF8" s="1">
         <v>2</v>
@@ -1986,16 +1954,16 @@
       <c r="AJ8" s="1">
         <v>1</v>
       </c>
-      <c r="AK8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>45</v>
+      <c r="AK8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>53</v>
+    <row r="9" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>22</v>
@@ -2003,14 +1971,14 @@
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
@@ -2033,29 +2001,29 @@
       <c r="M9" s="1">
         <v>5</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>38</v>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
+      </c>
+      <c r="W9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>5</v>
       </c>
       <c r="AF9" s="1">
         <v>1</v>
@@ -2072,16 +2040,16 @@
       <c r="AJ9" s="1">
         <v>1</v>
       </c>
-      <c r="AK9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>45</v>
+      <c r="AK9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>53</v>
+    <row r="10" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>23</v>
@@ -2089,14 +2057,14 @@
       <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>36</v>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
@@ -2119,28 +2087,28 @@
       <c r="M10" s="1">
         <v>5</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>38</v>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="W10" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
+    <row r="11" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>22</v>
@@ -2148,14 +2116,14 @@
       <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>36</v>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -2178,29 +2146,29 @@
       <c r="M11" s="1">
         <v>3</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>38</v>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
+      </c>
+      <c r="W11" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>5</v>
       </c>
       <c r="AF11" s="1">
         <v>1</v>
@@ -2217,16 +2185,16 @@
       <c r="AJ11" s="1">
         <v>2</v>
       </c>
-      <c r="AK11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>45</v>
+      <c r="AK11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>53</v>
+    <row r="12" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>20</v>
@@ -2234,66 +2202,66 @@
       <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>4</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="1">
-        <v>4</v>
-      </c>
-      <c r="H12" s="1">
-        <v>4</v>
-      </c>
-      <c r="I12" s="1">
-        <v>5</v>
-      </c>
-      <c r="J12" s="1">
-        <v>5</v>
-      </c>
-      <c r="K12" s="1">
-        <v>4</v>
-      </c>
-      <c r="L12" s="1">
-        <v>3</v>
-      </c>
-      <c r="M12" s="1">
-        <v>4</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="S12" s="1" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE12" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="W12" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>3</v>
+      </c>
       <c r="AF12" s="1">
         <v>5</v>
       </c>
@@ -2309,16 +2277,16 @@
       <c r="AJ12" s="1">
         <v>4</v>
       </c>
-      <c r="AK12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>71</v>
+      <c r="AK12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>53</v>
+    <row r="13" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>20</v>
@@ -2326,14 +2294,14 @@
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>36</v>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
@@ -2356,29 +2324,29 @@
       <c r="M13" s="1">
         <v>4</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>38</v>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="W13" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>2</v>
       </c>
       <c r="AF13" s="1">
         <v>1</v>
@@ -2395,16 +2363,16 @@
       <c r="AJ13" s="1">
         <v>1</v>
       </c>
-      <c r="AK13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>45</v>
+      <c r="AK13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
+    <row r="14" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>24</v>
@@ -2412,14 +2380,14 @@
       <c r="C14" s="1">
         <v>4</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>36</v>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
       </c>
       <c r="G14" s="1">
         <v>5</v>
@@ -2442,25 +2410,25 @@
       <c r="M14" s="1">
         <v>3</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>38</v>
+      <c r="N14" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>53</v>
+    <row r="15" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2</v>
       </c>
       <c r="B15" s="1">
         <v>22</v>
@@ -2468,14 +2436,14 @@
       <c r="C15" s="1">
         <v>4</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>36</v>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <v>4</v>
@@ -2498,40 +2466,40 @@
       <c r="M15" s="1">
         <v>4</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>74</v>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="P15" s="1">
         <v>1</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>76</v>
+      <c r="Q15" s="1">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="W15" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>53</v>
+    <row r="16" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2</v>
       </c>
       <c r="B16" s="1">
         <v>22</v>
@@ -2539,14 +2507,14 @@
       <c r="C16" s="1">
         <v>4</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>36</v>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>4</v>
@@ -2569,34 +2537,34 @@
       <c r="M16" s="1">
         <v>5</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>36</v>
+      <c r="N16" s="1">
+        <v>2</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>2</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>47</v>
+      <c r="Q16" s="1">
+        <v>2</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="W16" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>53</v>
+    <row r="17" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2</v>
       </c>
       <c r="B17" s="1">
         <v>22</v>
@@ -2604,14 +2572,14 @@
       <c r="C17" s="1">
         <v>4</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>36</v>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>5</v>
@@ -2634,28 +2602,28 @@
       <c r="M17" s="1">
         <v>5</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>38</v>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="W17" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
+    <row r="18" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1</v>
       </c>
       <c r="B18" s="1">
         <v>24</v>
@@ -2663,14 +2631,14 @@
       <c r="C18" s="1">
         <v>3</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>36</v>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>4</v>
@@ -2693,29 +2661,29 @@
       <c r="M18" s="1">
         <v>4</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>38</v>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="W18" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>2</v>
       </c>
       <c r="AF18" s="1">
         <v>1</v>
@@ -2732,16 +2700,16 @@
       <c r="AJ18" s="1">
         <v>1</v>
       </c>
-      <c r="AK18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL18" s="1" t="s">
-        <v>45</v>
+      <c r="AK18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>53</v>
+    <row r="19" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2</v>
       </c>
       <c r="B19" s="1">
         <v>21</v>
@@ -2749,65 +2717,65 @@
       <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1">
+        <v>5</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5</v>
+      </c>
+      <c r="K19" s="1">
+        <v>5</v>
+      </c>
+      <c r="L19" s="1">
+        <v>5</v>
+      </c>
+      <c r="M19" s="1">
+        <v>5</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="1">
-        <v>5</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4</v>
-      </c>
-      <c r="I19" s="1">
-        <v>5</v>
-      </c>
-      <c r="J19" s="1">
-        <v>5</v>
-      </c>
-      <c r="K19" s="1">
-        <v>5</v>
-      </c>
-      <c r="L19" s="1">
-        <v>5</v>
-      </c>
-      <c r="M19" s="1">
-        <v>5</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="S19" s="1" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE19" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
+      </c>
+      <c r="W19" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>1</v>
       </c>
       <c r="AF19" s="1">
         <v>1</v>
@@ -2824,16 +2792,16 @@
       <c r="AJ19" s="1">
         <v>1</v>
       </c>
-      <c r="AK19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL19" s="1" t="s">
-        <v>45</v>
+      <c r="AK19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>33</v>
+    <row r="20" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>25</v>
@@ -2841,50 +2809,50 @@
       <c r="C20" s="1">
         <v>4</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>4</v>
+      </c>
+      <c r="K20" s="1">
+        <v>4</v>
+      </c>
+      <c r="L20" s="1">
+        <v>5</v>
+      </c>
+      <c r="M20" s="1">
+        <v>5</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="1">
-        <v>4</v>
-      </c>
-      <c r="H20" s="1">
-        <v>4</v>
-      </c>
-      <c r="I20" s="1">
-        <v>4</v>
-      </c>
-      <c r="J20" s="1">
-        <v>4</v>
-      </c>
-      <c r="K20" s="1">
-        <v>4</v>
-      </c>
-      <c r="L20" s="1">
-        <v>5</v>
-      </c>
-      <c r="M20" s="1">
-        <v>5</v>
-      </c>
-      <c r="N20" s="1" t="s">
+      <c r="S20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="T20" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="U20" s="1">
         <v>21</v>
@@ -2892,20 +2860,20 @@
       <c r="V20" s="1">
         <v>4</v>
       </c>
-      <c r="W20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>59</v>
+      <c r="W20" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>4</v>
       </c>
       <c r="AF20" s="1">
         <v>3</v>
@@ -2922,16 +2890,16 @@
       <c r="AJ20" s="1">
         <v>2</v>
       </c>
-      <c r="AK20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL20" s="1" t="s">
-        <v>45</v>
+      <c r="AK20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>53</v>
+    <row r="21" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2</v>
       </c>
       <c r="B21" s="1">
         <v>21</v>
@@ -2939,14 +2907,14 @@
       <c r="C21" s="1">
         <v>3</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>36</v>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>3</v>
@@ -2969,35 +2937,35 @@
       <c r="M21" s="1">
         <v>2</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>85</v>
+      <c r="S21" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE21" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="W21" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>4</v>
       </c>
       <c r="AF21" s="1">
         <v>1</v>
@@ -3014,16 +2982,16 @@
       <c r="AJ21" s="1">
         <v>1</v>
       </c>
-      <c r="AK21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL21" s="1" t="s">
-        <v>45</v>
+      <c r="AK21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>53</v>
+    <row r="22" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>2</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
@@ -3031,14 +2999,14 @@
       <c r="C22" s="1">
         <v>3</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>36</v>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
@@ -3061,29 +3029,29 @@
       <c r="M22" s="1">
         <v>5</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>38</v>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="W22" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>4</v>
       </c>
       <c r="AF22" s="1">
         <v>1</v>
@@ -3100,16 +3068,16 @@
       <c r="AJ22" s="1">
         <v>1</v>
       </c>
-      <c r="AK22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL22" s="1" t="s">
-        <v>45</v>
+      <c r="AK22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
+    <row r="23" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>25</v>
@@ -3117,14 +3085,14 @@
       <c r="C23" s="1">
         <v>4</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>36</v>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>5</v>
@@ -3147,29 +3115,29 @@
       <c r="M23" s="1">
         <v>5</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>47</v>
+      <c r="N23" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>2</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE23" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
+      </c>
+      <c r="W23" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>5</v>
       </c>
       <c r="AF23" s="1">
         <v>5</v>
@@ -3187,9 +3155,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>53</v>
+    <row r="24" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
@@ -3197,14 +3165,14 @@
       <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>36</v>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>2</v>
@@ -3227,32 +3195,32 @@
       <c r="M24" s="1">
         <v>4</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>37</v>
+      <c r="N24" s="1">
+        <v>1</v>
       </c>
       <c r="P24" s="1">
         <v>0</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>38</v>
+      <c r="Q24" s="1">
+        <v>1</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE24" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
+      </c>
+      <c r="W24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>5</v>
       </c>
       <c r="AF24" s="1">
         <v>1</v>
@@ -3269,16 +3237,16 @@
       <c r="AJ24" s="1">
         <v>1</v>
       </c>
-      <c r="AK24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL24" s="1" t="s">
-        <v>45</v>
+      <c r="AK24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>53</v>
+    <row r="25" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>2</v>
       </c>
       <c r="B25" s="1">
         <v>22</v>
@@ -3286,14 +3254,14 @@
       <c r="C25" s="1">
         <v>4</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>36</v>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>4</v>
@@ -3316,31 +3284,31 @@
       <c r="M25" s="1">
         <v>4</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>38</v>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="W25" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>53</v>
+    <row r="26" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2</v>
       </c>
       <c r="B26" s="1">
         <v>20</v>
@@ -3348,14 +3316,14 @@
       <c r="C26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>36</v>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>3</v>
@@ -3378,30 +3346,30 @@
       <c r="M26" s="1">
         <v>4</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>38</v>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE26" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="W26" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>3</v>
+      </c>
       <c r="AF26" s="1">
         <v>4</v>
       </c>
@@ -3417,16 +3385,16 @@
       <c r="AJ26" s="1">
         <v>1</v>
       </c>
-      <c r="AK26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL26" s="1" t="s">
-        <v>45</v>
+      <c r="AK26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>53</v>
+    <row r="27" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>2</v>
       </c>
       <c r="B27" s="1">
         <v>23</v>
@@ -3434,14 +3402,14 @@
       <c r="C27" s="1">
         <v>3</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>36</v>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>3</v>
@@ -3464,29 +3432,29 @@
       <c r="M27" s="1">
         <v>4</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>38</v>
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE27" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="W27" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>4</v>
       </c>
       <c r="AF27" s="1">
         <v>3</v>
@@ -3503,16 +3471,16 @@
       <c r="AJ27" s="1">
         <v>1</v>
       </c>
-      <c r="AK27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL27" s="1" t="s">
-        <v>45</v>
+      <c r="AK27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
+    <row r="28" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1</v>
       </c>
       <c r="B28" s="1">
         <v>22</v>
@@ -3520,14 +3488,14 @@
       <c r="C28" s="1">
         <v>2</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>36</v>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>4</v>
@@ -3550,50 +3518,50 @@
       <c r="M28" s="1">
         <v>4</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>89</v>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
+      </c>
+      <c r="U28" s="1">
+        <v>20</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
+      </c>
+      <c r="W28" s="1">
+        <v>1</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE28" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>3</v>
       </c>
       <c r="AF28" s="1">
         <v>4</v>
@@ -3610,16 +3578,16 @@
       <c r="AJ28" s="1">
         <v>2</v>
       </c>
-      <c r="AK28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL28" s="1" t="s">
-        <v>45</v>
+      <c r="AK28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
+    <row r="29" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1</v>
       </c>
       <c r="B29" s="1">
         <v>23</v>
@@ -3627,14 +3595,14 @@
       <c r="C29" s="1">
         <v>3</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>36</v>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>5</v>
@@ -3657,29 +3625,29 @@
       <c r="M29" s="1">
         <v>5</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>38</v>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE29" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="W29" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>2</v>
       </c>
       <c r="AF29" s="1">
         <v>1</v>
@@ -3696,16 +3664,16 @@
       <c r="AJ29" s="1">
         <v>1</v>
       </c>
-      <c r="AK29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL29" s="1" t="s">
-        <v>45</v>
+      <c r="AK29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
+    <row r="30" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1</v>
       </c>
       <c r="B30" s="1">
         <v>25</v>
@@ -3713,14 +3681,14 @@
       <c r="C30" s="1">
         <v>4</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>36</v>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>5</v>
@@ -3743,14 +3711,14 @@
       <c r="M30" s="1">
         <v>5</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>38</v>
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="U30" s="1">
         <v>20</v>
@@ -3758,29 +3726,29 @@
       <c r="V30" s="1">
         <v>5</v>
       </c>
-      <c r="W30" s="1" t="s">
-        <v>73</v>
+      <c r="W30" s="1">
+        <v>1</v>
       </c>
       <c r="X30" s="1">
         <v>2</v>
       </c>
-      <c r="Y30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE30" s="1" t="s">
-        <v>59</v>
+      <c r="Y30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>4</v>
       </c>
       <c r="AF30" s="1">
         <v>3</v>
@@ -3797,16 +3765,16 @@
       <c r="AJ30" s="1">
         <v>2</v>
       </c>
-      <c r="AK30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL30" s="1" t="s">
-        <v>45</v>
+      <c r="AK30" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
+    <row r="31" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1</v>
       </c>
       <c r="B31" s="1">
         <v>23</v>
@@ -3814,14 +3782,14 @@
       <c r="C31" s="1">
         <v>3</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>36</v>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>5</v>
@@ -3844,14 +3812,14 @@
       <c r="M31" s="1">
         <v>5</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>38</v>
+      <c r="N31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="U31" s="1">
         <v>19</v>
@@ -3859,32 +3827,32 @@
       <c r="V31" s="1">
         <v>5</v>
       </c>
-      <c r="W31" s="1" t="s">
-        <v>73</v>
+      <c r="W31" s="1">
+        <v>1</v>
       </c>
       <c r="X31" s="1">
         <v>7</v>
       </c>
-      <c r="Y31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE31" s="1" t="s">
-        <v>52</v>
+      <c r="Y31" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>2</v>
       </c>
       <c r="AF31" s="1">
         <v>1</v>
@@ -3901,16 +3869,16 @@
       <c r="AJ31" s="1">
         <v>1</v>
       </c>
-      <c r="AK31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL31" s="1" t="s">
-        <v>45</v>
+      <c r="AK31" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
+    <row r="32" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1</v>
       </c>
       <c r="B32" s="1">
         <v>25</v>
@@ -3918,14 +3886,14 @@
       <c r="C32" s="1">
         <v>3</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>36</v>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>5</v>
@@ -3948,35 +3916,35 @@
       <c r="M32" s="1">
         <v>4</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>38</v>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE32" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="U32" s="1">
+        <v>19</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W32" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>2</v>
       </c>
       <c r="AF32" s="1">
         <v>1</v>
@@ -3993,16 +3961,16 @@
       <c r="AJ32" s="1">
         <v>1</v>
       </c>
-      <c r="AK32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL32" s="1" t="s">
-        <v>45</v>
+      <c r="AK32" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>53</v>
+    <row r="33" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>2</v>
       </c>
       <c r="B33" s="1">
         <v>20</v>
@@ -4010,14 +3978,14 @@
       <c r="C33" s="1">
         <v>3</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>36</v>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
       </c>
       <c r="G33" s="1">
         <v>3</v>
@@ -4040,31 +4008,31 @@
       <c r="M33" s="1">
         <v>4</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>36</v>
+      <c r="N33" s="1">
+        <v>2</v>
       </c>
       <c r="P33" s="1">
         <v>2</v>
       </c>
-      <c r="Q33" s="1" t="s">
-        <v>38</v>
+      <c r="Q33" s="1">
+        <v>1</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC33" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="W33" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
+    <row r="34" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1</v>
       </c>
       <c r="B34" s="1">
         <v>26</v>
@@ -4072,14 +4040,14 @@
       <c r="C34" s="1">
         <v>4</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>36</v>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>4</v>
@@ -4102,29 +4070,29 @@
       <c r="M34" s="1">
         <v>4</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>38</v>
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>1</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE34" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="W34" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>2</v>
       </c>
       <c r="AF34" s="1">
         <v>1</v>
@@ -4141,16 +4109,16 @@
       <c r="AJ34" s="1">
         <v>1</v>
       </c>
-      <c r="AK34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL34" s="1" t="s">
-        <v>45</v>
+      <c r="AK34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
+    <row r="35" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1</v>
       </c>
       <c r="B35" s="1">
         <v>21</v>
@@ -4158,14 +4126,14 @@
       <c r="C35" s="1">
         <v>2</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>36</v>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>4</v>
@@ -4188,8 +4156,8 @@
       <c r="M35" s="1">
         <v>4</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>36</v>
+      <c r="N35" s="1">
+        <v>2</v>
       </c>
       <c r="O35" s="1">
         <v>20</v>
@@ -4197,50 +4165,50 @@
       <c r="P35" s="1">
         <v>0</v>
       </c>
-      <c r="Q35" s="1" t="s">
-        <v>47</v>
+      <c r="Q35" s="1">
+        <v>2</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="U35" s="1">
         <v>18</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>73</v>
+      <c r="V35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W35" s="1">
+        <v>1</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z35" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE35" s="1" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>2</v>
       </c>
       <c r="AF35" s="1">
         <v>2</v>
@@ -4257,16 +4225,16 @@
       <c r="AJ35" s="1">
         <v>1</v>
       </c>
-      <c r="AK35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL35" s="1" t="s">
-        <v>106</v>
+      <c r="AK35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>33</v>
+    <row r="36" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1</v>
       </c>
       <c r="B36" s="1">
         <v>27</v>
@@ -4274,14 +4242,14 @@
       <c r="C36" s="1">
         <v>3</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>36</v>
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
@@ -4304,14 +4272,14 @@
       <c r="M36" s="1">
         <v>4</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>38</v>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="U36" s="1">
         <v>21</v>
@@ -4319,29 +4287,29 @@
       <c r="V36" s="1">
         <v>7</v>
       </c>
-      <c r="W36" s="1" t="s">
-        <v>73</v>
+      <c r="W36" s="1">
+        <v>1</v>
       </c>
       <c r="X36" s="1">
         <v>7</v>
       </c>
-      <c r="Y36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE36" s="1" t="s">
-        <v>59</v>
+      <c r="Y36" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>4</v>
       </c>
       <c r="AF36" s="1">
         <v>1</v>
@@ -4358,16 +4326,16 @@
       <c r="AJ36" s="1">
         <v>2</v>
       </c>
-      <c r="AK36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL36" s="1" t="s">
-        <v>45</v>
+      <c r="AK36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>53</v>
+    <row r="37" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>2</v>
       </c>
       <c r="B37" s="1">
         <v>21</v>
@@ -4375,14 +4343,14 @@
       <c r="C37" s="1">
         <v>3</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>36</v>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>3</v>
@@ -4405,32 +4373,32 @@
       <c r="M37" s="1">
         <v>4</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>38</v>
+      <c r="N37" s="1">
+        <v>2</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P37" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>1</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="W37" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>5</v>
       </c>
       <c r="AF37" s="1">
         <v>4</v>
@@ -4447,16 +4415,16 @@
       <c r="AJ37" s="1">
         <v>2</v>
       </c>
-      <c r="AK37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL37" s="1" t="s">
-        <v>45</v>
+      <c r="AK37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>33</v>
+    <row r="38" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1</v>
       </c>
       <c r="B38" s="1">
         <v>23</v>
@@ -4464,14 +4432,14 @@
       <c r="C38" s="1">
         <v>2</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>36</v>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>4</v>
@@ -4494,29 +4462,29 @@
       <c r="M38" s="1">
         <v>4</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>38</v>
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE38" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="W38" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>4</v>
       </c>
       <c r="AF38" s="1">
         <v>3</v>
@@ -4533,16 +4501,16 @@
       <c r="AJ38" s="1">
         <v>1</v>
       </c>
-      <c r="AK38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL38" s="1" t="s">
-        <v>45</v>
+      <c r="AK38" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>33</v>
+    <row r="39" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1</v>
       </c>
       <c r="B39" s="1">
         <v>23</v>
@@ -4550,14 +4518,14 @@
       <c r="C39" s="1">
         <v>2</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>36</v>
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>4</v>
@@ -4580,29 +4548,29 @@
       <c r="M39" s="1">
         <v>4</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>38</v>
+      <c r="N39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE39" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="W39" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>2</v>
       </c>
       <c r="AF39" s="1">
         <v>2</v>
@@ -4619,16 +4587,16 @@
       <c r="AJ39" s="1">
         <v>2</v>
       </c>
-      <c r="AK39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL39" s="1" t="s">
-        <v>45</v>
+      <c r="AK39" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL39" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>53</v>
+    <row r="40" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>2</v>
       </c>
       <c r="B40" s="1">
         <v>22</v>
@@ -4636,14 +4604,14 @@
       <c r="C40" s="1">
         <v>4</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>36</v>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>4</v>
@@ -4666,29 +4634,29 @@
       <c r="M40" s="1">
         <v>5</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>38</v>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>1</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE40" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
+      </c>
+      <c r="W40" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>5</v>
       </c>
       <c r="AF40" s="1">
         <v>1</v>
@@ -4705,16 +4673,16 @@
       <c r="AJ40" s="1">
         <v>1</v>
       </c>
-      <c r="AK40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL40" s="1" t="s">
-        <v>45</v>
+      <c r="AK40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL40" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>53</v>
+    <row r="41" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>2</v>
       </c>
       <c r="B41" s="1">
         <v>20</v>
@@ -4722,14 +4690,14 @@
       <c r="C41" s="1">
         <v>4</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>36</v>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>3</v>
@@ -4752,20 +4720,20 @@
       <c r="M41" s="1">
         <v>3</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>37</v>
+      <c r="N41" s="1">
+        <v>1</v>
       </c>
       <c r="P41" s="1">
         <v>2</v>
       </c>
-      <c r="Q41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R41" s="1">
-        <v>4</v>
+      <c r="Q41" s="1">
+        <v>2</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="U41" s="1">
         <v>0</v>
@@ -4773,23 +4741,23 @@
       <c r="V41" s="1">
         <v>0</v>
       </c>
-      <c r="W41" s="1" t="s">
-        <v>40</v>
+      <c r="W41" s="3">
+        <v>2</v>
       </c>
       <c r="X41" s="1">
         <v>0</v>
       </c>
-      <c r="AA41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE41" s="1" t="s">
-        <v>52</v>
+      <c r="AA41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>2</v>
       </c>
       <c r="AF41" s="1">
         <v>3</v>
@@ -4806,16 +4774,16 @@
       <c r="AJ41" s="1">
         <v>3</v>
       </c>
-      <c r="AK41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL41" s="1" t="s">
-        <v>45</v>
+      <c r="AK41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL41" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>33</v>
+    <row r="42" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>1</v>
       </c>
       <c r="B42" s="1">
         <v>24</v>
@@ -4823,14 +4791,14 @@
       <c r="C42" s="1">
         <v>3</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>36</v>
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>4</v>
@@ -4853,29 +4821,29 @@
       <c r="M42" s="1">
         <v>4</v>
       </c>
-      <c r="N42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>38</v>
+      <c r="N42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>1</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE42" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="W42" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>2</v>
       </c>
       <c r="AF42" s="1">
         <v>1</v>
@@ -4889,16 +4857,16 @@
       <c r="AJ42" s="1">
         <v>1</v>
       </c>
-      <c r="AK42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL42" s="1" t="s">
-        <v>45</v>
+      <c r="AK42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>33</v>
+    <row r="43" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>1</v>
       </c>
       <c r="B43" s="1">
         <v>22</v>
@@ -4906,14 +4874,14 @@
       <c r="C43" s="1">
         <v>2</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>36</v>
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
       </c>
       <c r="G43" s="1">
         <v>5</v>
@@ -4936,28 +4904,28 @@
       <c r="M43" s="1">
         <v>5</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>38</v>
+      <c r="N43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>1</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC43" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="W43" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>33</v>
+    <row r="44" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>1</v>
       </c>
       <c r="B44" s="1">
         <v>23</v>
@@ -4965,14 +4933,14 @@
       <c r="C44" s="1">
         <v>4</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>36</v>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>3</v>
@@ -4995,29 +4963,29 @@
       <c r="M44" s="1">
         <v>3</v>
       </c>
-      <c r="N44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>38</v>
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>1</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE44" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
+      </c>
+      <c r="W44" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>5</v>
       </c>
       <c r="AF44" s="1">
         <v>3</v>
@@ -5034,16 +5002,16 @@
       <c r="AJ44" s="1">
         <v>3</v>
       </c>
-      <c r="AK44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL44" s="1" t="s">
-        <v>45</v>
+      <c r="AK44" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL44" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>53</v>
+    <row r="45" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>2</v>
       </c>
       <c r="B45" s="1">
         <v>22</v>
@@ -5051,14 +5019,14 @@
       <c r="C45" s="1">
         <v>4</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>36</v>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
       </c>
       <c r="G45" s="1">
         <v>4</v>
@@ -5081,29 +5049,29 @@
       <c r="M45" s="1">
         <v>4</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>38</v>
+      <c r="N45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>1</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC45" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE45" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
+      </c>
+      <c r="W45" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>5</v>
       </c>
       <c r="AF45" s="1">
         <v>1</v>
@@ -5120,16 +5088,16 @@
       <c r="AJ45" s="1">
         <v>1</v>
       </c>
-      <c r="AK45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL45" s="1" t="s">
-        <v>45</v>
+      <c r="AK45" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL45" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>33</v>
+    <row r="46" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1</v>
       </c>
       <c r="B46" s="1">
         <v>20</v>
@@ -5137,14 +5105,14 @@
       <c r="C46" s="1">
         <v>2</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>36</v>
+      <c r="D46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>5</v>
@@ -5167,30 +5135,30 @@
       <c r="M46" s="1">
         <v>4</v>
       </c>
-      <c r="N46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>38</v>
+      <c r="N46" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>1</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE46" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="W46" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>3</v>
+      </c>
       <c r="AF46" s="1">
         <v>3</v>
       </c>
@@ -5206,16 +5174,16 @@
       <c r="AJ46" s="1">
         <v>4</v>
       </c>
-      <c r="AK46" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL46" s="1" t="s">
-        <v>106</v>
+      <c r="AK46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL46" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>53</v>
+    <row r="47" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>2</v>
       </c>
       <c r="B47" s="1">
         <v>20</v>
@@ -5223,14 +5191,14 @@
       <c r="C47" s="1">
         <v>2</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>36</v>
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
       </c>
       <c r="G47" s="1">
         <v>3</v>
@@ -5253,28 +5221,28 @@
       <c r="M47" s="1">
         <v>4</v>
       </c>
-      <c r="N47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>38</v>
+      <c r="N47" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>1</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC47" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="W47" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
+    <row r="48" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>2</v>
       </c>
       <c r="B48" s="1">
         <v>23</v>
@@ -5282,14 +5250,14 @@
       <c r="C48" s="1">
         <v>4</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>36</v>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>4</v>
@@ -5312,35 +5280,35 @@
       <c r="M48" s="1">
         <v>5</v>
       </c>
-      <c r="N48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>47</v>
+      <c r="N48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>2</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC48" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD48" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE48" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="W48" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>2</v>
       </c>
       <c r="AF48" s="1">
         <v>1</v>
@@ -5357,16 +5325,16 @@
       <c r="AJ48" s="1">
         <v>2</v>
       </c>
-      <c r="AK48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL48" s="1" t="s">
-        <v>45</v>
+      <c r="AK48" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL48" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>53</v>
+    <row r="49" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>2</v>
       </c>
       <c r="B49" s="1">
         <v>25</v>
@@ -5374,14 +5342,14 @@
       <c r="C49" s="1">
         <v>4</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>36</v>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>5</v>
@@ -5404,29 +5372,29 @@
       <c r="M49" s="1">
         <v>4</v>
       </c>
-      <c r="N49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>47</v>
+      <c r="N49" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>2</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>113</v>
+        <v>29</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC49" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="W49" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5444,7 +5412,7 @@
       <selection activeCell="A565" sqref="A565"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
